--- a/BackTest/2020-01-20 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-20 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-59932.20071380999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-57838.10531381</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-57705.11411381</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-60665.75091381</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-51286.95291381</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-51133.09801381</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-50493.67891381</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-50493.67891381</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-60625.15548644999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-60388.81318645</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-62339.22749820002</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-62431.38069820002</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-62333.04529820001</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-67348.0793982</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-67745.47129820001</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-62934.7514982</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-62589.5523982</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-62658.7522982</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-62658.7522982</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-62658.7522982</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-65243.4619982</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-65057.4619982</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-67149.4683982</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-67149.4683982</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-69226.8044982</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-68130.8045982</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-67591.0318982</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-67591.0318982</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-67730.94279820001</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-67539.8387982</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-65079.61336763</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-67576.73436763001</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-67675.73436763001</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-67639.73436763001</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-68392.75116763001</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-68426.25546763001</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-67556.62476763001</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-65721.31495736001</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-65631.92355736002</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-65675.34375736001</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-65541.98365736</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-65541.98365736</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-66920.01155736001</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-67009.67975736001</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-67260.07035736</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-67197.20095736001</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-66997.20095736001</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-67032.08275736001</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-67024.69005736001</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-67249.30645736001</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-67282.99925736002</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-66923.95125736002</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-62989.07525736002</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-63241.00725736002</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-64208.48035736002</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-64085.59785736002</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-64085.59785736002</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-64085.59785736002</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-64039.59785736002</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-63989.59785736002</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-63986.59785736002</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-63386.27525736002</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-63228.23125907002</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-63228.23125907002</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-63480.16325907002</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-63432.17735736002</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-63432.17735736002</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-63970.23095736002</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-63971.87645736002</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-64021.87645736002</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-65033.08075736002</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-65033.08075736002</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-65961.58145736002</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-65961.58145736002</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-65961.58145736002</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-65961.58145736002</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-65961.58145736002</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-65961.58145736002</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-65961.58145736002</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-65961.58145736002</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-66275.48425736002</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-65857.37505736001</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-68725.07095736002</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-68725.07095736002</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-68597.24435736002</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-68760.88165736002</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-68760.88165736002</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-68760.88165736002</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-70629.11075736002</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-76711.41475736002</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-76711.41475736002</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-77983.85435736002</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-76838.87935736001</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-75115.23556505002</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-75115.23556505002</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-75100.00076505002</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-75103.57596505003</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-67376.08223779</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-67254.87623779</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-64862.26923779</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-46412.30543779</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-49618.99663779001</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-49642.15403779</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-48913.22983779</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-47811.39603779</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-42354.12643779</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-35610.96623778999</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-32608.15733778999</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-34443.55223779</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-28302.99043779</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-26451.08153779</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-26451.08153779</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-26377.35113779</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-30756.71613779</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-31856.71613779</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-31855.42763779</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-28697.54023779</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-28697.54023779</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-25705.39043779</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-25705.39043779</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-25664.88963779</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-25140.15538035</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-25173.42298035</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-23173.06958035</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-18422.63529635</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-15116.03039635</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-15116.03039635</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-9364.919196349998</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-9364.919196349998</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-21356.57719635</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-22244.48809635</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-21460.42819635</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-22162.74069635</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-22162.74069635</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-22162.74069635</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-24601.29789635</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-25255.70569635</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-31861.48489635</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-32186.46119635</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-35400.54859635</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-36722.01229635</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-36291.41559634999</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-36291.41559634999</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-36658.00009634999</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-37174.03469634999</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-38463.36409634999</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-37111.16579634999</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-37111.16579634999</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-37111.16579634999</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-36178.54799634999</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-36178.54799634999</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-36149.82809634999</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-35876.04149634999</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-36194.53469634999</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-36578.03349634999</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-35516.12949634999</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-35502.08369634999</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-35400.08369634999</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-35400.08369634999</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-33424.36770714998</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-33470.90830714998</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-33027.11330714999</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-33590.12970714999</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-33856.99980714999</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-35411.54030714999</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-35420.77450714999</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-35420.77450714999</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-35415.77450714999</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-35458.38550714999</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-38270.90800714998</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-37834.88050714999</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-36426.79780714999</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-36426.79780714999</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-36426.79780714999</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-35101.78140714999</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-35374.97700714999</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-35521.97700714999</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-35521.97700714999</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-35471.67180714999</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-35547.62780714998</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-35534.72900714998</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-35745.44190714998</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-35745.44190714998</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-36795.63030714998</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-36795.63030714998</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-36795.63030714998</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-36795.63030714998</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-36381.42680714998</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-36383.36820714998</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-36183.36820714998</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-38937.74490714998</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-38949.74490714998</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-38949.74490714998</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-38949.74490714998</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-39191.82690714998</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-39191.82690714998</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-39858.29880714998</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-39858.29880714998</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-38807.63513962998</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-38909.63513962998</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-38931.66253962998</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-37700.62043962998</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-37488.64679150998</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-41141.91729150998</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-41339.04099150997</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-41339.04099150997</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-41338.60949150997</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-41349.74649150998</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-41349.74649150998</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-41499.48549150998</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-41723.86119150998</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-41643.43299150997</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-43449.80059150997</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-43467.80059150997</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-46872.27309150997</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-47975.08869150997</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-47925.08869150997</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-51410.70299150997</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-53367.42829150997</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-54574.41739150997</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-54639.00989150997</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-54320.51669150997</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-55694.69229150997</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-55698.27439150997</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-50980.24679150997</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-50980.24679150997</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-49894.97899150997</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-51957.24799150997</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-51945.27109150997</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-52001.33969150997</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-52001.33969150997</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-52169.55379150996</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-51207.33869150996</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-51426.02239150996</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-51361.33933846997</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-51480.02013846997</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-51361.02063846997</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-50039.48649150997</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-50039.48649150997</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-50023.14219150997</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-50210.14219150997</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-46928.25559150997</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-47162.46279150997</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-46765.36279150997</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-44997.34789150997</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-44448.25669150997</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-44489.83159150997</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-43666.89629150997</v>
       </c>
       <c r="H455" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-43667.89629150997</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-43710.89629150997</v>
       </c>
       <c r="H457" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-43907.89629150997</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-43885.98571541997</v>
       </c>
       <c r="H459" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-46873.72011541997</v>
       </c>
       <c r="H460" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-45384.66721541997</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-45439.65891541997</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-45455.16751541997</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-45749.03261541997</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-45749.03261541997</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-45749.03261541997</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-44921.99181541997</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-44838.80041541997</v>
       </c>
       <c r="H468" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-44838.80041541997</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-44837.07020922997</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-44837.07020922997</v>
       </c>
       <c r="H472" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-43875.57720922997</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-43857.38170922997</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-44240.90570922996</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-43349.96310922996</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-43099.26210922996</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-42479.76280922996</v>
       </c>
       <c r="H478" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-44705.25530922996</v>
       </c>
       <c r="H479" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-44701.25530922996</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-43990.82540922995</v>
       </c>
       <c r="H481" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-42803.92010922996</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-42808.46550922996</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-42342.65480922996</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-42342.65480922996</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-38545.21400922996</v>
       </c>
       <c r="H486" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-38545.21400922996</v>
       </c>
       <c r="H487" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-38545.21400922996</v>
       </c>
       <c r="H488" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-36483.50540922996</v>
       </c>
       <c r="H489" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-38207.61560922996</v>
       </c>
       <c r="H490" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-38207.61560922996</v>
       </c>
       <c r="H491" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-38459.82250922996</v>
       </c>
       <c r="H492" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-39119.82150922997</v>
       </c>
       <c r="H493" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-36871.61230922997</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-36871.61230922997</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-41250.53520922997</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-40419.44220922996</v>
       </c>
       <c r="H497" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-40458.83650922996</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-43425.41630922996</v>
       </c>
       <c r="H499" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-42863.74860922997</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-43063.74860922997</v>
       </c>
       <c r="H501" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-43063.74860922997</v>
       </c>
       <c r="H502" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-43063.74860922997</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-40667.16690922996</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-40680.14740922996</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-40680.14740922996</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-40680.14740922996</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-40680.14740922996</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-40455.14330922996</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-40542.52040922996</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-40537.52040922996</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-40537.52040922996</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-40539.52040922996</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-39959.21060922996</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-39959.21060922996</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-37789.17640922996</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-37086.38350922996</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-36345.93210922996</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-36334.93120922996</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-31946.96930922996</v>
       </c>
       <c r="H520" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-31960.96930922996</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-31740.74277305996</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-32606.46527305996</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-32601.73387305995</v>
       </c>
       <c r="H524" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-34601.73387305996</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-34599.73387305996</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-35431.97137305996</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-35350.35625278996</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-35296.00647305996</v>
       </c>
       <c r="H529" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-35195.41887305996</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-35194.72467305997</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-33006.01997305996</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-33006.01997305996</v>
       </c>
       <c r="H533" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-33302.88017305997</v>
       </c>
       <c r="H534" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-33320.43507305997</v>
       </c>
       <c r="H535" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-35006.02009332997</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-35006.02009332997</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-34343.41879332997</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-34344.92879332997</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-34725.41629332997</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-35158.24829332998</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-35158.24829332998</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-35570.20619332998</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-43410.63529332998</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-40172.12819332998</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-50525.60979332998</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-50525.60979332998</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-50525.60979332998</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-50525.60979332998</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-55541.92649332998</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-52926.01069332998</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-54404.93849332997</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-54991.75479332997</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-54983.62779332997</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-55483.62779332997</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-55478.42769332997</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-52952.39639332997</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-52272.02629332997</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-52272.02629332997</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-52038.02629332997</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-52012.10219332997</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-52012.10219332997</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-52012.10219332997</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-52012.10219332997</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-52712.13249332997</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-52712.13249332997</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-53596.62969332997</v>
       </c>
       <c r="H567" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-54018.27139332997</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-54018.27139332997</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-54018.27139332997</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-55629.60559332996</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-55629.60559332996</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-52118.23359332996</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-52115.63539332996</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-52130.28339332996</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-52130.28339332996</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-52130.28339332996</v>
       </c>
       <c r="H578" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-52118.93439332996</v>
       </c>
       <c r="H579" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-53047.14609332996</v>
       </c>
       <c r="H580" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>-53037.44309332996</v>
       </c>
       <c r="H581" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>-53250.86339332996</v>
       </c>
       <c r="H582" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>-52741.94379332996</v>
       </c>
       <c r="H583" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>-52757.56799332995</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>-52757.56799332995</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>-52441.59549332995</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>-52441.59549332995</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>-52441.59549332995</v>
       </c>
       <c r="H588" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>-52441.59549332995</v>
       </c>
       <c r="H589" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-52800.23469332995</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>-53311.59859332995</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-52630.11989332995</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-52630.11989332995</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-52630.11989332995</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-63624.04139332994</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-61387.29409332994</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-61387.29409332994</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-61387.29409332994</v>
       </c>
       <c r="H598" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-61411.18419332994</v>
       </c>
       <c r="H599" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-59250.52369332994</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-60460.74389332994</v>
       </c>
       <c r="H601" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-59164.43639332994</v>
       </c>
       <c r="H602" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-59165.43639332994</v>
       </c>
       <c r="H603" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-59157.89289332994</v>
       </c>
       <c r="H604" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-60708.00429332994</v>
       </c>
       <c r="H605" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-58929.14659332994</v>
       </c>
       <c r="H606" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-59652.45769332994</v>
       </c>
       <c r="H607" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-67523.00409332995</v>
       </c>
       <c r="H608" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-72989.04609332995</v>
       </c>
       <c r="H609" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-72973.39699332995</v>
       </c>
       <c r="H610" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-72973.39699332995</v>
       </c>
       <c r="H611" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-72872.39699332995</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-72751.81459332995</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-72752.81459332995</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-72471.52959332995</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-73853.42259332995</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-73806.42259332995</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-74006.28249332994</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-74006.28249332994</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-73845.32679332994</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-74872.18029332993</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-73872.18029332993</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-73921.00559332993</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-73773.14079332993</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-73512.60089332993</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-73961.91509332992</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-73961.91509332992</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-74125.22769332993</v>
       </c>
       <c r="H628" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-73767.39409332993</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>-73748.00828371993</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-75312.82120476993</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-75308.82120476993</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-75291.88464240993</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-78109.57094240993</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-78109.57094240993</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-78109.57094240993</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-78109.57094240993</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-76558.43554240993</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-75995.34664240993</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-75906.34664240993</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-76006.72374240993</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-76006.72374240993</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-76006.72374240993</v>
       </c>
       <c r="H643" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-78557.04344240992</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-74057.04344240992</v>
       </c>
       <c r="H646" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-74418.96784240993</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-74927.92724240993</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-76349.41204240994</v>
       </c>
       <c r="H649" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-76349.41204240994</v>
       </c>
       <c r="H650" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-76353.61204240994</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>-76353.61204240994</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-77353.61204240994</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>-77504.91384240994</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>-77504.91384240994</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>-77444.49364240994</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>-78427.98064240994</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>-81016.99564240994</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>-81016.99564240994</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>-80901.29671767994</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>-80974.44331767994</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>-80974.44331767994</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-82963.15071767994</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
         <v>-130648.6243176799</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>-128904.8967176799</v>
       </c>
       <c r="H698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23452,7 +23452,7 @@
         <v>-128904.8967176799</v>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>-129523.9472176799</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>-112109.4412176799</v>
       </c>
       <c r="H701" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>-110312.5464176799</v>
       </c>
       <c r="H702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>-104600.0593176799</v>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>-104600.0593176799</v>
       </c>
       <c r="H704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>-113655.1069940799</v>
       </c>
       <c r="H705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23683,7 +23683,7 @@
         <v>-122533.39797151</v>
       </c>
       <c r="H706" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23716,7 +23716,7 @@
         <v>-105577.91237151</v>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
         <v>-114316.88077151</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -26224,7 +26224,7 @@
         <v>-200893.48003716</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I783" t="n">
         <v>2147</v>
@@ -26263,7 +26263,7 @@
         <v>-200725.98443716</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I784" t="n">
         <v>2145</v>
@@ -26302,11 +26302,9 @@
         <v>-199313.58203716</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
-      </c>
-      <c r="I785" t="n">
-        <v>2151</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
@@ -26341,11 +26339,9 @@
         <v>-199313.58203716</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
-      </c>
-      <c r="I786" t="n">
-        <v>2154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
@@ -26380,11 +26376,9 @@
         <v>-201084.45643716</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
-      </c>
-      <c r="I787" t="n">
-        <v>2154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
@@ -26419,11 +26413,9 @@
         <v>-198642.48897402</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
-      </c>
-      <c r="I788" t="n">
-        <v>2153</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
@@ -26458,11 +26450,9 @@
         <v>-197311.2314175</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
-      </c>
-      <c r="I789" t="n">
-        <v>2161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
@@ -27977,9 +27967,11 @@
         <v>-225587.33776504</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
-      </c>
-      <c r="I830" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I830" t="n">
+        <v>2146</v>
+      </c>
       <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
@@ -28014,9 +28006,11 @@
         <v>-225585.33776504</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
-      </c>
-      <c r="I831" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I831" t="n">
+        <v>2143</v>
+      </c>
       <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
@@ -28051,9 +28045,11 @@
         <v>-226859.24826504</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
-      </c>
-      <c r="I832" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I832" t="n">
+        <v>2144</v>
+      </c>
       <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
@@ -28088,9 +28084,11 @@
         <v>-226859.24826504</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I833" t="n">
+        <v>2139</v>
+      </c>
       <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
@@ -28125,7 +28123,7 @@
         <v>-227791.79116504</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I834" t="n">
         <v>2139</v>
@@ -28164,9 +28162,11 @@
         <v>-227791.79116504</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I835" t="n">
+        <v>2138</v>
+      </c>
       <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>-226468.16956504</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I836" t="n">
         <v>2138</v>
@@ -28240,7 +28240,7 @@
         <v>-226499.46946504</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I837" t="n">
         <v>2145</v>
@@ -28279,9 +28279,11 @@
         <v>-226477.57126504</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>2142</v>
+      </c>
       <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
@@ -28316,7 +28318,7 @@
         <v>-227208.93596504</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I839" t="n">
         <v>2146</v>
@@ -28355,9 +28357,11 @@
         <v>-227247.00156504</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>2145</v>
+      </c>
       <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
@@ -28392,9 +28396,11 @@
         <v>-227088.88426504</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>2143</v>
+      </c>
       <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
@@ -28429,9 +28435,11 @@
         <v>-226833.32616504</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>2146</v>
+      </c>
       <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
@@ -28466,9 +28474,11 @@
         <v>-225592.87686504</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>2151</v>
+      </c>
       <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
@@ -28540,9 +28550,11 @@
         <v>-225348.80616504</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>2152</v>
+      </c>
       <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
@@ -28577,9 +28589,11 @@
         <v>-222764.93456504</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>2154</v>
+      </c>
       <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
@@ -28614,9 +28628,11 @@
         <v>-222764.93456504</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>2162</v>
+      </c>
       <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
@@ -28725,9 +28741,11 @@
         <v>-218845.51916504</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>2165</v>
+      </c>
       <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
@@ -29554,6 +29572,6 @@
       <c r="M872" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-20 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -946,7 +946,7 @@
         <v>-47874.22068644999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-48346.58688644999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-48911.29728644999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-48920.79728644999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-50027.28878644999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-50026.49778645</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-56830.73138645</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-62617.05598645</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-60625.15548644999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-60625.15548644999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-60376.43018644999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-60388.81318645</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-60388.81318645</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-60163.80248645</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-59071.53720983</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-59071.53720983</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-59071.53720983</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-59109.05280983</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-58818.16830983</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-58745.48160983</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-53054.71750983</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-54374.58810983</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-55676.33350983</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-56520.20710983</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-57037.93020983</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-55663.38190983</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-62332.40600983</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-61992.01060983</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-61685.77190983</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-65122.85380983</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-64872.30630983</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-63331.34608301002</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-65101.75418301002</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-64933.16719820002</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-62339.22749820002</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-62431.38069820002</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-62333.04529820001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-62332.81189820002</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-62394.62299820001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-62394.62299820001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-61881.26159820001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-64647.61929820001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-64368.74259820001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-64474.63009820001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-64479.63009820001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-65001.25619820001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-65001.25619820001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-65001.25619820001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-65105.3344982</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-65075.3774982</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-65075.3774982</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-65075.3774982</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-67260.07035736</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-67197.20095736001</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-62989.07525736002</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-63241.00725736002</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-64208.48035736002</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-64085.59785736002</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-64085.59785736002</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-64039.59785736002</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-63986.59785736002</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-63386.27525736002</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-63228.23125907002</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-63228.23125907002</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-63480.16325907002</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-63432.17735736002</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-63432.17735736002</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-63970.23095736002</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-63971.87645736002</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-64021.87645736002</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-65033.08075736002</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-65033.08075736002</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-65961.58145736002</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-65961.58145736002</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-65961.58145736002</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-65961.58145736002</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-65961.58145736002</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-65961.58145736002</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-65961.58145736002</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-65961.58145736002</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-66275.48425736002</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-65857.37505736001</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-68725.07095736002</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-68725.07095736002</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-68597.24435736002</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-68760.88165736002</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-68760.88165736002</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-68760.88165736002</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-70629.11075736002</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-76711.41475736002</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-76711.41475736002</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-77983.85435736002</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-76838.87935736001</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-74555.71576505003</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-74605.71576505003</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-74271.90138597004</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-72674.36308597004</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-67033.74623779001</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-46412.30543779</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-39700.99943779</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-26451.08153779</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-26451.08153779</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-26377.35113779</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-30756.71613779</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-31856.71613779</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-31855.42763779</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-28697.54023779</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-28697.54023779</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-25705.39043779</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-25705.39043779</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-25664.88963779</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-25140.15538035</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-25173.42298035</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-23173.06958035</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-18422.63529635</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-15116.03039635</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-15116.03039635</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-9364.919196349998</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-9364.919196349998</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-21356.57719635</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-22244.48809635</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-21460.42819635</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-22162.74069635</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-22162.74069635</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-22162.74069635</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-24601.29789635</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-25255.70569635</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-31861.48489635</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-32186.46119635</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-35400.54859635</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-36722.01229635</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-36291.41559634999</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-36291.41559634999</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-36658.00009634999</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-37174.03469634999</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-38463.36409634999</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-37111.16579634999</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-37111.16579634999</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-37111.16579634999</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-36178.54799634999</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-36178.54799634999</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-36149.82809634999</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-35876.04149634999</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-36194.53469634999</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-36578.03349634999</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-35516.12949634999</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-35502.08369634999</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-35400.08369634999</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-35400.08369634999</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-33856.99980714999</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-35411.54030714999</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-35420.77450714999</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-35420.77450714999</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-35415.77450714999</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-35458.38550714999</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-38270.90800714998</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-37834.88050714999</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-36426.79780714999</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-36426.79780714999</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-36426.79780714999</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-35101.78140714999</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-35374.97700714999</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-35521.97700714999</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-35521.97700714999</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-35471.67180714999</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-35547.62780714998</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-35534.72900714998</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-35745.44190714998</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-35745.44190714998</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-36795.63030714998</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-36795.63030714998</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-36795.63030714998</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-36795.63030714998</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-36381.42680714998</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-36383.36820714998</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-36183.36820714998</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-38937.74490714998</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-38949.74490714998</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-38949.74490714998</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-38949.74490714998</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-39191.82690714998</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-39191.82690714998</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-39858.29880714998</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-39858.29880714998</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-38807.63513962998</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-38909.63513962998</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-38931.66253962998</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-37700.62043962998</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-37488.64679150998</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-41141.91729150998</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-41339.04099150997</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-41339.04099150997</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-41338.60949150997</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-41349.74649150998</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-41349.74649150998</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-41499.48549150998</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-41723.86119150998</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-41643.43299150997</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-43449.80059150997</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-43467.80059150997</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-46872.27309150997</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-47975.08869150997</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-47925.08869150997</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-51410.70299150997</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-53367.42829150997</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-54574.41739150997</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-54639.00989150997</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-54320.51669150997</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-55694.69229150997</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-55698.27439150997</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-50980.24679150997</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-50980.24679150997</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-49894.97899150997</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-51957.24799150997</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-51945.27109150997</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-52001.33969150997</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-52001.33969150997</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-52169.55379150996</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-51207.33869150996</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-51426.02239150996</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-51361.33933846997</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-51480.02013846997</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-51361.02063846997</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-50039.48649150997</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-50039.48649150997</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-50023.14219150997</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-50210.14219150997</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-46928.25559150997</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-47162.46279150997</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-46765.36279150997</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-44997.34789150997</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-44448.25669150997</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-44489.83159150997</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-43666.89629150997</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-43667.89629150997</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-43710.89629150997</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-43907.89629150997</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-43885.98571541997</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-46873.72011541997</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-45384.66721541997</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-45439.65891541997</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-45455.16751541997</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-45749.03261541997</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-45749.03261541997</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-45749.03261541997</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-44921.99181541997</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-44838.80041541997</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-44838.80041541997</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-44837.07020922997</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-44837.07020922997</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-43875.57720922997</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-43857.38170922997</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-44240.90570922996</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-43349.96310922996</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-43099.26210922996</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-42479.76280922996</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-44705.25530922996</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-44701.25530922996</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-43990.82540922995</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-42803.92010922996</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-42808.46550922996</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-42342.65480922996</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-42342.65480922996</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-38545.21400922996</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-38545.21400922996</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-38545.21400922996</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-36483.50540922996</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-38207.61560922996</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-38207.61560922996</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-38459.82250922996</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-39119.82150922997</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-36871.61230922997</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-36871.61230922997</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-41250.53520922997</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-40419.44220922996</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-40458.83650922996</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-43425.41630922996</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-42863.74860922997</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-43063.74860922997</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-43063.74860922997</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-43063.74860922997</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-40667.16690922996</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-40680.14740922996</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-40680.14740922996</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-40680.14740922996</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-40680.14740922996</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-40455.14330922996</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-40542.52040922996</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-40537.52040922996</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-40537.52040922996</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-40539.52040922996</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-39959.21060922996</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-39959.21060922996</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-37789.17640922996</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-37086.38350922996</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-36345.93210922996</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-36334.93120922996</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-31960.96930922996</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-31740.74277305996</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-32606.46527305996</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-32601.73387305995</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-34601.73387305996</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-34599.73387305996</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-35431.97137305996</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-35350.35625278996</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-35296.00647305996</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-35195.41887305996</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-35194.72467305997</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-33006.01997305996</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-33006.01997305996</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-33302.88017305997</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-33320.43507305997</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-35006.02009332997</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-35006.02009332997</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-34343.41879332997</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-34344.92879332997</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-34725.41629332997</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-35158.24829332998</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-35158.24829332998</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-35570.20619332998</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-43410.63529332998</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-40172.12819332998</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-50525.60979332998</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-50525.60979332998</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-50525.60979332998</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-50525.60979332998</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-55541.92649332998</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-52926.01069332998</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-54404.93849332997</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-54991.75479332997</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-54983.62779332997</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-55483.62779332997</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-55478.42769332997</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-52952.39639332997</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-52272.02629332997</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-52272.02629332997</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-52038.02629332997</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-52012.10219332997</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-52012.10219332997</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-52012.10219332997</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-52012.10219332997</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-52712.13249332997</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-52712.13249332997</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-54018.27139332997</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-54018.27139332997</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-54018.27139332997</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-55629.60559332996</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-55629.60559332996</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-52118.23359332996</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-52115.63539332996</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-52130.28339332996</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-52130.28339332996</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-52130.28339332996</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-52118.93439332996</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-53047.14609332996</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>-53037.44309332996</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>-53250.86339332996</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>-52741.94379332996</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>-52757.56799332995</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>-52757.56799332995</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>-52441.59549332995</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>-52441.59549332995</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>-52441.59549332995</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>-52441.59549332995</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-52800.23469332995</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>-53311.59859332995</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-52630.11989332995</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-52630.11989332995</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-52630.11989332995</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-63624.04139332994</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-61387.29409332994</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-61387.29409332994</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-61387.29409332994</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-61411.18419332994</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-59250.52369332994</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-60460.74389332994</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-59164.43639332994</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-59165.43639332994</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-59157.89289332994</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-60708.00429332994</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-58929.14659332994</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-59652.45769332994</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-67523.00409332995</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-72989.04609332995</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-72973.39699332995</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-72973.39699332995</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-72872.39699332995</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-72751.81459332995</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-72752.81459332995</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-72471.52959332995</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-73853.42259332995</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-73806.42259332995</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-74006.28249332994</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-74006.28249332994</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-73845.32679332994</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-74872.18029332993</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-73872.18029332993</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-73921.00559332993</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-73773.14079332993</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-73512.60089332993</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-73961.91509332992</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-73961.91509332992</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-74125.22769332993</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-73767.39409332993</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>-73748.00828371993</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-75312.82120476993</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-75308.82120476993</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-75291.88464240993</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-78109.57094240993</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-78109.57094240993</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-78109.57094240993</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-78109.57094240993</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-76558.43554240993</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-75995.34664240993</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-75906.34664240993</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-76006.72374240993</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-76006.72374240993</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-78557.04344240992</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-74418.96784240993</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-74927.92724240993</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-76349.41204240994</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-76349.41204240994</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-76353.61204240994</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>-76353.61204240994</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-77353.61204240994</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>-77504.91384240994</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>-77504.91384240994</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>-77444.49364240994</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>-78427.98064240994</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>-81016.99564240994</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>-81016.99564240994</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>-80901.29671767994</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>-80974.44331767994</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>-80974.44331767994</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-82963.15071767994</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -26302,9 +26302,11 @@
         <v>-199313.58203716</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>2151</v>
+      </c>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
@@ -26339,9 +26341,11 @@
         <v>-199313.58203716</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I786" t="n">
+        <v>2154</v>
+      </c>
       <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
@@ -26376,9 +26380,11 @@
         <v>-201084.45643716</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>2154</v>
+      </c>
       <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
@@ -26413,9 +26419,11 @@
         <v>-198642.48897402</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>2153</v>
+      </c>
       <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
@@ -26450,9 +26458,11 @@
         <v>-197311.2314175</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>2161</v>
+      </c>
       <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
@@ -26487,9 +26497,11 @@
         <v>-200136.8598175</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I790" t="n">
+        <v>2167</v>
+      </c>
       <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
@@ -26524,9 +26536,11 @@
         <v>-196905.3312175</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
-      </c>
-      <c r="I791" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I791" t="n">
+        <v>2163</v>
+      </c>
       <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
@@ -27745,9 +27759,11 @@
         <v>-215930.26216224</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
-      </c>
-      <c r="I824" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I824" t="n">
+        <v>2144</v>
+      </c>
       <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
@@ -27782,9 +27798,11 @@
         <v>-230633.85176224</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
-      </c>
-      <c r="I825" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I825" t="n">
+        <v>2143</v>
+      </c>
       <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
@@ -27856,9 +27874,11 @@
         <v>-231566.69161364</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
-      </c>
-      <c r="I827" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I827" t="n">
+        <v>2142</v>
+      </c>
       <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
@@ -27893,9 +27913,11 @@
         <v>-226326.74126504</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>2140</v>
+      </c>
       <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
@@ -27930,9 +27952,11 @@
         <v>-224777.59506504</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I829" t="n">
+        <v>2145</v>
+      </c>
       <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
@@ -28513,9 +28537,11 @@
         <v>-225592.87686504</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>2152</v>
+      </c>
       <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
@@ -28667,9 +28693,11 @@
         <v>-222764.93456504</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>2162</v>
+      </c>
       <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
@@ -28741,11 +28769,9 @@
         <v>-218845.51916504</v>
       </c>
       <c r="H850" t="n">
-        <v>1</v>
-      </c>
-      <c r="I850" t="n">
-        <v>2165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
@@ -29409,9 +29435,11 @@
         <v>-218846.00114718</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>2167</v>
+      </c>
       <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
@@ -29572,6 +29600,6 @@
       <c r="M872" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-20 BackTest QTUM.xlsx
@@ -946,7 +946,7 @@
         <v>-47874.22068644999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-48346.58688644999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-48911.29728644999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-48920.79728644999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-50027.28878644999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-50026.49778645</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-56830.73138645</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-62617.05598645</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-60625.15548644999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-60625.15548644999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-60376.43018644999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-60388.81318645</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-60388.81318645</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-60163.80248645</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-59071.53720983</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-59071.53720983</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-59071.53720983</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-59109.05280983</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-58818.16830983</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-58745.48160983</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-53054.71750983</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-54374.58810983</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-55676.33350983</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-56520.20710983</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-57037.93020983</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-55663.38190983</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-62332.40600983</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-61992.01060983</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-61685.77190983</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-65122.85380983</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-64872.30630983</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-63331.34608301002</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-65101.75418301002</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-64933.16719820002</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-62339.22749820002</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-62431.38069820002</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-62333.04529820001</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-62332.81189820002</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-62394.62299820001</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-62394.62299820001</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-61881.26159820001</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-64647.61929820001</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-64368.74259820001</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-64474.63009820001</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-64479.63009820001</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-65001.25619820001</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-65001.25619820001</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-65001.25619820001</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-65105.3344982</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-65075.3774982</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-65075.3774982</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-65075.3774982</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-74555.71576505003</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-74605.71576505003</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-74271.90138597004</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-72674.36308597004</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-67033.74623779001</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-46412.30543779</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-39700.99943779</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-37311.65243779</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-35610.96623778999</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-32608.15733778999</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-34443.55223779</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-26377.35113779</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-31856.71613779</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-31855.42763779</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-28697.54023779</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-28697.54023779</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-25705.39043779</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-25705.39043779</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-25664.88963779</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-25140.15538035</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-25173.42298035</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-23173.06958035</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-18422.63529635</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-15116.03039635</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-15116.03039635</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-9364.919196349998</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-9364.919196349998</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-21356.57719635</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-22244.48809635</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-21460.42819635</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-22162.74069635</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-22162.74069635</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-22162.74069635</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-24601.29789635</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-25255.70569635</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-31861.48489635</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-32186.46119635</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-31960.96930922996</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -26224,17 +26224,11 @@
         <v>-200893.48003716</v>
       </c>
       <c r="H783" t="n">
-        <v>1</v>
-      </c>
-      <c r="I783" t="n">
-        <v>2147</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26263,17 +26257,11 @@
         <v>-200725.98443716</v>
       </c>
       <c r="H784" t="n">
-        <v>1</v>
-      </c>
-      <c r="I784" t="n">
-        <v>2145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26302,17 +26290,11 @@
         <v>-199313.58203716</v>
       </c>
       <c r="H785" t="n">
-        <v>1</v>
-      </c>
-      <c r="I785" t="n">
-        <v>2151</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26341,17 +26323,11 @@
         <v>-199313.58203716</v>
       </c>
       <c r="H786" t="n">
-        <v>1</v>
-      </c>
-      <c r="I786" t="n">
-        <v>2154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26380,17 +26356,11 @@
         <v>-201084.45643716</v>
       </c>
       <c r="H787" t="n">
-        <v>1</v>
-      </c>
-      <c r="I787" t="n">
-        <v>2154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26419,17 +26389,11 @@
         <v>-198642.48897402</v>
       </c>
       <c r="H788" t="n">
-        <v>1</v>
-      </c>
-      <c r="I788" t="n">
-        <v>2153</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26458,17 +26422,11 @@
         <v>-197311.2314175</v>
       </c>
       <c r="H789" t="n">
-        <v>1</v>
-      </c>
-      <c r="I789" t="n">
-        <v>2161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26497,17 +26455,11 @@
         <v>-200136.8598175</v>
       </c>
       <c r="H790" t="n">
-        <v>1</v>
-      </c>
-      <c r="I790" t="n">
-        <v>2167</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26536,17 +26488,11 @@
         <v>-196905.3312175</v>
       </c>
       <c r="H791" t="n">
-        <v>1</v>
-      </c>
-      <c r="I791" t="n">
-        <v>2163</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26579,11 +26525,7 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26616,11 +26558,7 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26653,11 +26591,7 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26690,11 +26624,7 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26727,11 +26657,7 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26764,11 +26690,7 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -26801,11 +26723,7 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -26838,11 +26756,7 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -26875,11 +26789,7 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -26912,11 +26822,7 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -26949,11 +26855,7 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -26986,11 +26888,7 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27023,11 +26921,7 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K804" t="inlineStr"/>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27060,11 +26954,7 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K805" t="inlineStr"/>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27097,11 +26987,7 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K806" t="inlineStr"/>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27134,11 +27020,7 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K807" t="inlineStr"/>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27171,11 +27053,7 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K808" t="inlineStr"/>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27208,11 +27086,7 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K809" t="inlineStr"/>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27245,11 +27119,7 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K810" t="inlineStr"/>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27282,11 +27152,7 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K811" t="inlineStr"/>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27319,11 +27185,7 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K812" t="inlineStr"/>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27356,11 +27218,7 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K813" t="inlineStr"/>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27393,11 +27251,7 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K814" t="inlineStr"/>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27430,11 +27284,7 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K815" t="inlineStr"/>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27467,11 +27317,7 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K816" t="inlineStr"/>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27504,11 +27350,7 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27541,11 +27383,7 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K818" t="inlineStr"/>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27578,11 +27416,7 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27615,11 +27449,7 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27652,11 +27482,7 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K821" t="inlineStr"/>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27689,11 +27515,7 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27726,11 +27548,7 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27759,17 +27577,11 @@
         <v>-215930.26216224</v>
       </c>
       <c r="H824" t="n">
-        <v>1</v>
-      </c>
-      <c r="I824" t="n">
-        <v>2144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K824" t="inlineStr"/>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27806,7 +27618,7 @@
       <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L825" t="n">
@@ -27874,11 +27686,9 @@
         <v>-231566.69161364</v>
       </c>
       <c r="H827" t="n">
-        <v>1</v>
-      </c>
-      <c r="I827" t="n">
-        <v>2142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
@@ -27913,11 +27723,9 @@
         <v>-226326.74126504</v>
       </c>
       <c r="H828" t="n">
-        <v>1</v>
-      </c>
-      <c r="I828" t="n">
-        <v>2140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
@@ -27952,11 +27760,9 @@
         <v>-224777.59506504</v>
       </c>
       <c r="H829" t="n">
-        <v>1</v>
-      </c>
-      <c r="I829" t="n">
-        <v>2145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
@@ -27991,11 +27797,9 @@
         <v>-225587.33776504</v>
       </c>
       <c r="H830" t="n">
-        <v>1</v>
-      </c>
-      <c r="I830" t="n">
-        <v>2146</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
@@ -28030,11 +27834,9 @@
         <v>-225585.33776504</v>
       </c>
       <c r="H831" t="n">
-        <v>1</v>
-      </c>
-      <c r="I831" t="n">
-        <v>2143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
@@ -28732,9 +28534,11 @@
         <v>-222726.93456504</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>2162</v>
+      </c>
       <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
@@ -28769,9 +28573,11 @@
         <v>-218845.51916504</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>2165</v>
+      </c>
       <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
@@ -29324,9 +29130,11 @@
         <v>-217943.49674718</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I865" t="n">
+        <v>2167</v>
+      </c>
       <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
@@ -29435,11 +29243,9 @@
         <v>-218846.00114718</v>
       </c>
       <c r="H868" t="n">
-        <v>1</v>
-      </c>
-      <c r="I868" t="n">
-        <v>2167</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
@@ -29585,9 +29391,11 @@
         <v>-216852.32564718</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>2173</v>
+      </c>
       <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
